--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFABE8F-B0A6-4664-BA4B-7D303A2A8596}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026131B-CA47-4CDC-93DA-048A0BD186B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>AR1</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>Correctly Unscheduled</t>
-  </si>
-  <si>
-    <t>RUNNING2</t>
-  </si>
-  <si>
-    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
@@ -396,7 +390,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +445,18 @@
       <c r="D2">
         <v>0.01</v>
       </c>
+      <c r="E2">
+        <v>0.92559395653877896</v>
+      </c>
+      <c r="F2">
+        <v>0.94103999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.897025916432727</v>
+      </c>
+      <c r="H2">
+        <v>0.179265880367801</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -464,16 +470,10 @@
       <c r="D4">
         <v>0.01</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -486,6 +486,18 @@
       <c r="D6">
         <v>0.01</v>
       </c>
+      <c r="E6">
+        <v>0.90532640049330904</v>
+      </c>
+      <c r="F6">
+        <v>0.75176973353443899</v>
+      </c>
+      <c r="G6">
+        <v>0.63692676591067998</v>
+      </c>
+      <c r="H6">
+        <v>0.702464853598328</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
@@ -499,16 +511,10 @@
       <c r="D8">
         <v>0.01</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -534,9 +540,6 @@
       <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13">
@@ -552,6 +555,18 @@
       </c>
       <c r="D14">
         <v>0.01</v>
+      </c>
+      <c r="E14">
+        <v>0.874212277040056</v>
+      </c>
+      <c r="F14">
+        <v>0.94499249624812398</v>
+      </c>
+      <c r="G14">
+        <v>0.77964437656812502</v>
+      </c>
+      <c r="H14">
+        <v>0.26705548830652998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026131B-CA47-4CDC-93DA-048A0BD186B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A925EC-ECBA-442A-A0F6-C16180161D8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AR1</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Correctly Unscheduled</t>
+  </si>
+  <si>
+    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +530,18 @@
       <c r="D10">
         <v>0.01</v>
       </c>
+      <c r="E10">
+        <v>0.86286755602994503</v>
+      </c>
+      <c r="F10">
+        <v>0.96089000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.85505232935074604</v>
+      </c>
+      <c r="H10">
+        <v>0.17131335126821501</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11">
@@ -580,6 +595,9 @@
       </c>
       <c r="D16">
         <v>0.01</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -1,31 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A925EC-ECBA-442A-A0F6-C16180161D8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D6C18D-9767-49BA-9F07-64D20B06B970}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Job Length</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Probability Cut Off</t>
+  </si>
+  <si>
+    <t>Avg Cycle Usage</t>
+  </si>
+  <si>
+    <t>Survival Rate</t>
+  </si>
+  <si>
+    <t>Correctly Scheduled</t>
+  </si>
+  <si>
+    <t>Correctly Unscheduled</t>
+  </si>
   <si>
     <t>AR1</t>
   </si>
@@ -42,44 +72,23 @@
     <t>(6)12</t>
   </si>
   <si>
+    <t>RUNNING1</t>
+  </si>
+  <si>
     <t>VAR(1)</t>
   </si>
   <si>
+    <t>RUNNING3</t>
+  </si>
+  <si>
     <t>VAR(2)</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Job Length</t>
-  </si>
-  <si>
-    <t>Sample Size</t>
-  </si>
-  <si>
-    <t>Probability Cut Off</t>
-  </si>
-  <si>
-    <t>Avg Cycle Usage</t>
-  </si>
-  <si>
-    <t>Survival Rate</t>
-  </si>
-  <si>
-    <t>Correctly Scheduled</t>
-  </si>
-  <si>
-    <t>Correctly Unscheduled</t>
-  </si>
-  <si>
-    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,10 +402,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -409,38 +418,38 @@
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -461,12 +470,12 @@
         <v>0.179265880367801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -474,14 +483,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -502,12 +511,12 @@
         <v>0.702464853598328</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -515,14 +524,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -543,12 +552,12 @@
         <v>0.17131335126821501</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="D11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -556,14 +565,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="D13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -584,12 +593,12 @@
         <v>0.26705548830652998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="D15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -597,17 +606,17 @@
         <v>0.01</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -618,13 +627,37 @@
       <c r="D18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.88977858501818197</v>
+      </c>
+      <c r="F18">
+        <v>0.28919499999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.30756410256410299</v>
+      </c>
+      <c r="H18">
+        <v>0.83668944099378895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="D19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.87475485502900896</v>
+      </c>
+      <c r="F19">
+        <v>0.16278999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.25080925989504099</v>
+      </c>
+      <c r="H19">
+        <v>0.84943939752119102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -632,12 +665,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22">
         <v>12</v>
       </c>
@@ -647,13 +680,28 @@
       <c r="D22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0.908361926833956</v>
+      </c>
+      <c r="F22">
+        <v>6.7445952740070397E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.12322720015027699</v>
+      </c>
+      <c r="H22">
+        <v>0.94684864250081602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="D23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -661,14 +709,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -679,13 +727,25 @@
       <c r="D26">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0.88531238067954798</v>
+      </c>
+      <c r="F26">
+        <v>0.30012</v>
+      </c>
+      <c r="G26">
+        <v>0.28565459246298103</v>
+      </c>
+      <c r="H26">
+        <v>0.83086903017148095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="D27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -693,12 +753,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>12</v>
       </c>
@@ -708,13 +768,16 @@
       <c r="D30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="D31">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -722,7 +785,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D6C18D-9767-49BA-9F07-64D20B06B970}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA738640-B94D-4F7A-ACD4-86EE8C1A76ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,10 +402,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -418,7 +418,7 @@
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -470,12 +470,15 @@
         <v>0.179265880367801</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -483,12 +486,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -511,12 +514,15 @@
         <v>0.702464853598328</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -524,12 +530,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -552,12 +558,15 @@
         <v>0.17131335126821501</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -565,12 +574,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -593,28 +602,28 @@
         <v>0.26705548830652998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1000</v>
       </c>
       <c r="D16">
         <v>0.01</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -640,7 +649,7 @@
         <v>0.83668944099378895</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -657,7 +666,7 @@
         <v>0.84943939752119102</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -665,12 +674,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>12</v>
       </c>
@@ -693,7 +702,7 @@
         <v>0.94684864250081602</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -701,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -709,12 +718,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -740,12 +749,12 @@
         <v>0.83086903017148095</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -753,12 +762,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>12</v>
       </c>
@@ -772,12 +781,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -785,7 +794,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA738640-B94D-4F7A-ACD4-86EE8C1A76ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{916D429C-7CB1-4266-AD62-F109A2B3FB5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -63,6 +63,9 @@
     <t>(1)1</t>
   </si>
   <si>
+    <t>RUNNING1</t>
+  </si>
+  <si>
     <t>(1)12</t>
   </si>
   <si>
@@ -72,13 +75,7 @@
     <t>(6)12</t>
   </si>
   <si>
-    <t>RUNNING1</t>
-  </si>
-  <si>
     <t>VAR(1)</t>
-  </si>
-  <si>
-    <t>RUNNING3</t>
   </si>
   <si>
     <t>VAR(2)</t>
@@ -88,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,11 +398,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -418,7 +415,7 @@
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -470,15 +467,15 @@
         <v>0.179265880367801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -486,14 +483,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -514,15 +511,15 @@
         <v>0.702464853598328</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>0.1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -530,14 +527,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -558,15 +555,15 @@
         <v>0.17131335126821501</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="D11">
         <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -574,14 +571,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="D13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -602,15 +599,15 @@
         <v>0.26705548830652998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="D15">
         <v>0.1</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -618,12 +615,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -649,7 +646,7 @@
         <v>0.83668944099378895</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -666,7 +663,7 @@
         <v>0.84943939752119102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -674,12 +671,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22">
         <v>12</v>
       </c>
@@ -702,15 +699,24 @@
         <v>0.94684864250081602</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="D23">
         <v>0.1</v>
       </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.92869974457396898</v>
+      </c>
+      <c r="F23">
+        <v>2.1271995977878301E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.118352469473301</v>
+      </c>
+      <c r="H23">
+        <v>0.948578427084245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -718,14 +724,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -749,12 +755,12 @@
         <v>0.83086903017148095</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="D27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -762,12 +768,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>12</v>
       </c>
@@ -777,16 +783,25 @@
       <c r="D30">
         <v>0.01</v>
       </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.91090358744266997</v>
+      </c>
+      <c r="F30">
+        <v>6.0035193564605301E-2</v>
+      </c>
+      <c r="G30">
+        <v>9.5579926886008595E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.94220445459737301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="D31">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -794,7 +809,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916D429C-7CB1-4266-AD62-F109A2B3FB5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558EC88-24E3-4BD2-997F-96EEA39DCC3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>(1)1</t>
-  </si>
-  <si>
-    <t>RUNNING1</t>
   </si>
   <si>
     <t>(1)12</t>
@@ -85,13 +82,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,11 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,11 +404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -415,7 +421,7 @@
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -467,15 +473,24 @@
         <v>0.179265880367801</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>0.1</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" s="1">
+        <v>0.95000409521827001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.89819499999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.92142012870463597</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.19692315668053501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -483,14 +498,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -511,15 +526,24 @@
         <v>0.702464853598328</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>0.1</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" s="1">
+        <v>0.93900014034150103</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.52979386626445402</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.69234468937875704</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.71045993867484303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -527,14 +551,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -555,15 +579,24 @@
         <v>0.17131335126821501</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" s="1">
+        <v>0.90048164629425997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.94667500000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.90669150752988703</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.178080220503993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -571,14 +604,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -599,15 +632,24 @@
         <v>0.26705548830652998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>0.1</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E15">
+        <v>0.91146745290667897</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.91548774387193599</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.83481430849851901</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.274489706430466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -615,14 +657,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -646,7 +688,7 @@
         <v>0.83668944099378895</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -663,7 +705,7 @@
         <v>0.84943939752119102</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -671,12 +713,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>12</v>
       </c>
@@ -699,7 +741,7 @@
         <v>0.94684864250081602</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -716,7 +758,7 @@
         <v>0.948578427084245</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -724,14 +766,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -755,12 +797,12 @@
         <v>0.83086903017148095</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -768,12 +810,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>12</v>
       </c>
@@ -796,12 +838,24 @@
         <v>0.94220445459737301</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="E31" s="1">
+        <v>0.92007937841710397</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.16689354187689201</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.21688118335189199</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.84631156982905598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -809,12 +863,13 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558EC88-24E3-4BD2-997F-96EEA39DCC3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4FBC63-E0F9-4CF7-8F38-567C1A5814DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4FBC63-E0F9-4CF7-8F38-567C1A5814DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BC7D98-F7DD-45CF-9B74-08D9448E9337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +124,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,11 +404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -421,7 +421,7 @@
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -473,7 +473,7 @@
         <v>0.179265880367801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3">
         <v>0.1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>0.19692315668053501</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -498,12 +498,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0.702464853598328</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>0.1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0.71045993867484303</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -551,12 +551,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.17131335126821501</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="D11">
         <v>0.1</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0.178080220503993</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -604,12 +604,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="D13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0.26705548830652998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="D15">
         <v>0.1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.274489706430466</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -657,12 +657,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0.83668944099378895</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0.84943939752119102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -713,12 +713,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22">
         <v>12</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0.94684864250081602</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0.948578427084245</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -766,12 +766,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -797,12 +797,24 @@
         <v>0.83086903017148095</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="D27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0.87609104699999996</v>
+      </c>
+      <c r="F27">
+        <v>0.17805000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.23687733799999999</v>
+      </c>
+      <c r="H27">
+        <v>0.83880047599999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -810,12 +822,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>12</v>
       </c>
@@ -838,7 +850,7 @@
         <v>0.94220445459737301</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="D31">
         <v>0.1</v>
       </c>
@@ -855,7 +867,7 @@
         <v>0.84631156982905598</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -863,7 +875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary avgs.xlsx
+++ b/ForegroundJobScheduler/results/summary avgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BC7D98-F7DD-45CF-9B74-08D9448E9337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F72C9-DDD8-427B-AAAF-EA4348FC9379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15732" yWindow="3492" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +124,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,24 +404,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -473,7 +473,7 @@
         <v>0.179265880367801</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>0.1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>0.19692315668053501</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -498,12 +498,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0.702464853598328</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>0.1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0.71045993867484303</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -551,12 +551,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.17131335126821501</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>0.1</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0.178080220503993</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -604,12 +604,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0.26705548830652998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>0.1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.274489706430466</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -657,12 +657,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0.83668944099378895</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0.84943939752119102</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -713,12 +713,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>12</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0.94684864250081602</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0.948578427084245</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -766,12 +766,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0.83086903017148095</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>0.1</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.83880047599999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -822,12 +822,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.94220445459737301</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>0.1</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0.84631156982905598</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -875,7 +875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>0.1</v>
       </c>
